--- a/Graphs/Generation_statisticsV1-3.xlsx
+++ b/Graphs/Generation_statisticsV1-3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noeri\Documents\Schule\AngewandteMathematik\RegressionUndNeuronaleNetzwerke\Vortrag Dateien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukad\PycharmProjects\4-Gewinnt-NN\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EB3AAC4A-B033-4C66-88FC-C0A754EF6461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CD1A46-B9C8-4B27-AE25-E91708EB5208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{044C9293-8319-46A4-90E2-90C4632BA5FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{044C9293-8319-46A4-90E2-90C4632BA5FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Generation_statisticsV1-3" sheetId="1" r:id="rId1"/>
@@ -531,48 +531,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -590,7 +590,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -615,13 +615,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -652,13 +658,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -3705,9 +3717,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3721,9 +3733,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3752,9 +3763,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3780,9 +3791,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3817,17 +3827,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3852,7 +3873,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3877,13 +3898,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -3914,13 +3941,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -6967,9 +7000,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -6983,9 +7016,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -7014,9 +7046,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -7042,9 +7074,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -7079,17 +7110,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -7114,7 +7156,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7126,6 +7168,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Spielausgänge</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7139,13 +7212,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -7176,13 +7255,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:val>
             <c:numRef>
@@ -10214,13 +10322,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:val>
             <c:numRef>
@@ -13252,13 +13389,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:val>
             <c:numRef>
@@ -16290,13 +16456,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:val>
             <c:numRef>
@@ -19336,11 +19531,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -19354,9 +19549,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -19385,9 +19579,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -19413,9 +19607,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -19455,9 +19648,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -19481,17 +19673,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -19516,7 +19719,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -19541,13 +19744,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -19578,13 +19787,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -22631,9 +22846,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -22647,9 +22862,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -22678,9 +22892,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -22706,9 +22920,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -22743,17 +22956,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -22936,35 +23160,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -22972,26 +23194,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -23000,9 +23230,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -23021,14 +23250,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -23037,45 +23258,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -23087,31 +23298,29 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -23129,21 +23338,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -23153,20 +23359,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -23180,14 +23386,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -23201,9 +23407,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -23217,12 +23422,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -23234,9 +23433,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -23251,14 +23450,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -23270,14 +23468,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -23289,14 +23487,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -23305,14 +23502,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -23320,7 +23516,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -23333,11 +23529,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -23345,14 +23551,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -23364,12 +23570,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -23385,7 +23598,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -23394,9 +23606,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -23406,7 +23617,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -23414,9 +23625,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -23427,9 +23638,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -23441,46 +23651,38 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -23488,26 +23690,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -23516,9 +23726,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -23537,14 +23746,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -23553,45 +23754,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -23603,31 +23794,29 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -23645,21 +23834,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -23669,20 +23855,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -23696,14 +23882,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -23717,9 +23903,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -23733,12 +23918,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -23750,9 +23929,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -23767,14 +23946,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -23786,14 +23964,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -23805,14 +23983,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -23821,14 +23998,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -23836,7 +24012,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -23849,11 +24025,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -23861,14 +24047,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -23880,12 +24066,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -23901,7 +24094,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -23910,9 +24102,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -23922,7 +24113,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -23930,9 +24121,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -23943,9 +24134,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -23957,46 +24147,38 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="283">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -24004,26 +24186,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -24032,9 +24222,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -24053,14 +24242,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -24069,20 +24250,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -24091,13 +24272,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -24109,10 +24290,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -24121,16 +24302,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -24148,21 +24330,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -24181,14 +24360,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -24200,14 +24378,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -24221,9 +24399,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -24237,17 +24414,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -24259,9 +24425,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -24276,14 +24442,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -24295,14 +24460,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -24314,14 +24479,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -24330,14 +24494,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -24345,7 +24508,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -24358,17 +24521,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -24381,14 +24543,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -24400,12 +24562,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -24421,7 +24590,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -24430,9 +24598,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -24448,14 +24615,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -24464,9 +24630,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -24478,46 +24643,38 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -24525,26 +24682,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -24553,9 +24718,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -24574,14 +24738,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -24590,45 +24746,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -24640,31 +24786,29 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -24682,21 +24826,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -24706,20 +24847,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -24733,14 +24874,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -24754,9 +24895,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -24770,12 +24910,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -24787,9 +24921,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -24804,14 +24938,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -24823,14 +24956,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -24842,14 +24975,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -24858,14 +24990,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -24873,7 +25004,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -24886,11 +25017,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -24898,14 +25039,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -24917,12 +25058,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -24938,7 +25086,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -24947,9 +25094,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -24959,7 +25105,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -24967,9 +25113,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -24980,9 +25126,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -24994,12 +25139,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -25154,7 +25293,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -25473,10 +25612,10 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+      <selection activeCell="T49" sqref="T49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
